--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\Privat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AABF05-1899-46FA-AAB8-983D9655A177}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658DB38-080B-4240-8295-29E96210B8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86889746-8514-4861-BDF6-A0C619C4B626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86889746-8514-4861-BDF6-A0C619C4B626}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Einkommen</t>
   </si>
@@ -76,6 +78,24 @@
   </si>
   <si>
     <t>Investitionen</t>
+  </si>
+  <si>
+    <t>Steuern</t>
+  </si>
+  <si>
+    <t>Eltern</t>
+  </si>
+  <si>
+    <t>Lohn</t>
+  </si>
+  <si>
+    <t>Pro Jahr</t>
+  </si>
+  <si>
+    <t>Strikt</t>
+  </si>
+  <si>
+    <t>Ausgiebig</t>
   </si>
 </sst>
 </file>
@@ -427,192 +447,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED40723-2192-4676-A9AF-C14514448D0D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>3900</v>
-      </c>
-      <c r="C1">
-        <f>B1</f>
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
+      </c>
+      <c r="G3">
+        <f>E3+F3</f>
+        <v>4000</v>
+      </c>
+      <c r="J3">
+        <f>E3*12+F3*13</f>
+        <v>50000</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+      <c r="N3">
+        <v>2000</v>
+      </c>
+      <c r="O3">
+        <f>M3+N3</f>
+        <v>4000</v>
+      </c>
+      <c r="R3">
+        <f>M3*12+N3*13</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>C3-B4</f>
+        <v>1975</v>
+      </c>
+      <c r="F4">
         <v>65</v>
       </c>
-      <c r="C2">
-        <f>C1-B2</f>
-        <v>3835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G4">
+        <f>G3-F4</f>
+        <v>3935</v>
+      </c>
+      <c r="I4">
+        <f>F4*12</f>
+        <v>780</v>
+      </c>
+      <c r="J4">
+        <f>J3-I4</f>
+        <v>49220</v>
+      </c>
+      <c r="N4">
+        <v>65</v>
+      </c>
+      <c r="O4">
+        <f>O3-N4</f>
+        <v>3935</v>
+      </c>
+      <c r="Q4">
+        <f>N4*12</f>
+        <v>780</v>
+      </c>
+      <c r="R4">
+        <f>R3-Q4</f>
+        <v>49220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>700</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C15" si="0">C2-B3</f>
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C18" si="0">C4-B5</f>
+        <v>1475</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G18" si="1">G4-F5</f>
+        <v>3335</v>
+      </c>
+      <c r="I5">
+        <f>F5*12</f>
+        <v>7200</v>
+      </c>
+      <c r="J5">
+        <f>J4-I5</f>
+        <v>42020</v>
+      </c>
+      <c r="N5">
+        <v>500</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O18" si="2">O4-N5</f>
+        <v>3435</v>
+      </c>
+      <c r="Q5">
+        <f>N5*12</f>
+        <v>6000</v>
+      </c>
+      <c r="R5">
+        <f>R4-Q5</f>
+        <v>43220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>150</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1325</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3185</v>
+      </c>
+      <c r="I6">
+        <f>F6*12</f>
+        <v>1800</v>
+      </c>
+      <c r="J6">
+        <f>J5-I6</f>
+        <v>40220</v>
+      </c>
+      <c r="N6">
+        <v>150</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>3285</v>
+      </c>
+      <c r="Q6">
+        <f>N6*12</f>
+        <v>1800</v>
+      </c>
+      <c r="R6">
+        <f>R5-Q6</f>
+        <v>41420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
       <c r="B7">
         <v>150</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2985</v>
+      </c>
+      <c r="I7">
+        <f>F7*12</f>
+        <v>2400</v>
+      </c>
+      <c r="J7">
+        <f>J6-I7</f>
+        <v>37820</v>
+      </c>
+      <c r="N7">
+        <v>150</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>3135</v>
+      </c>
+      <c r="Q7">
+        <f>N7*12</f>
+        <v>1800</v>
+      </c>
+      <c r="R7">
+        <f>R6-Q7</f>
+        <v>39620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1135</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2935</v>
+      </c>
+      <c r="I8">
+        <f>F8*12</f>
+        <v>600</v>
+      </c>
+      <c r="J8">
+        <f>J7-I8</f>
+        <v>37220</v>
+      </c>
+      <c r="N8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>3095</v>
+      </c>
+      <c r="Q8">
+        <f>N8*12</f>
+        <v>480</v>
+      </c>
+      <c r="R8">
+        <f>R7-Q8</f>
+        <v>39140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1055</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2835</v>
+      </c>
+      <c r="I9">
+        <f>F9*12</f>
+        <v>1200</v>
+      </c>
+      <c r="J9">
+        <f>J8-I9</f>
+        <v>36020</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>3015</v>
+      </c>
+      <c r="Q9">
+        <f>N9*12</f>
+        <v>960</v>
+      </c>
+      <c r="R9">
+        <f>R8-Q9</f>
+        <v>38180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>35</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="I10">
+        <f>F10*12</f>
+        <v>420</v>
+      </c>
+      <c r="J10">
+        <f>J9-I10</f>
+        <v>35600</v>
+      </c>
+      <c r="N10">
+        <v>35</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>2980</v>
+      </c>
+      <c r="Q10">
+        <f>N10*12</f>
+        <v>420</v>
+      </c>
+      <c r="R10">
+        <f>R9-Q10</f>
+        <v>37760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2780</v>
+      </c>
+      <c r="I11">
+        <f>F11*12</f>
+        <v>240</v>
+      </c>
+      <c r="J11">
+        <f>J10-I11</f>
+        <v>35360</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>2960</v>
+      </c>
+      <c r="Q11">
+        <f>N11*12</f>
+        <v>240</v>
+      </c>
+      <c r="R11">
+        <f>R10-Q11</f>
+        <v>37520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>150</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2630</v>
+      </c>
+      <c r="I12">
+        <f>F12*12</f>
+        <v>1800</v>
+      </c>
+      <c r="J12">
+        <f>J11-I12</f>
+        <v>33560</v>
+      </c>
+      <c r="N12">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>2810</v>
+      </c>
+      <c r="Q12">
+        <f>N12*12</f>
+        <v>1800</v>
+      </c>
+      <c r="R12">
+        <f>R11-Q12</f>
+        <v>35720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="F13">
         <v>100</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2530</v>
+      </c>
+      <c r="I13">
+        <f>F13*12</f>
+        <v>1200</v>
+      </c>
+      <c r="J13">
+        <f>J12-I13</f>
+        <v>32360</v>
+      </c>
+      <c r="N13">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>2730</v>
+      </c>
+      <c r="Q13">
+        <f>N13*12</f>
+        <v>960</v>
+      </c>
+      <c r="R13">
+        <f>R12-Q13</f>
+        <v>34760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>100</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>670</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2430</v>
+      </c>
+      <c r="I14">
+        <f>F14*12</f>
+        <v>1200</v>
+      </c>
+      <c r="J14">
+        <f>J13-I14</f>
+        <v>31160</v>
+      </c>
+      <c r="N14">
+        <v>200</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>2530</v>
+      </c>
+      <c r="Q14">
+        <f>N14*12</f>
+        <v>2400</v>
+      </c>
+      <c r="R14">
+        <f>R13-Q14</f>
+        <v>32360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1500</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>600</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>1600</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>830</v>
+      </c>
+      <c r="I15">
+        <f>F15*12</f>
+        <v>19200</v>
+      </c>
+      <c r="J15">
+        <f>J14-I15</f>
+        <v>11960</v>
+      </c>
+      <c r="N15">
+        <v>1400</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>1130</v>
+      </c>
+      <c r="Q15">
+        <f>N15*12</f>
+        <v>16800</v>
+      </c>
+      <c r="R15">
+        <f>R14-Q15</f>
+        <v>15560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F16">
         <v>150</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="I16">
+        <f>F16*12</f>
+        <v>1800</v>
+      </c>
+      <c r="J16">
+        <f>J15-I16</f>
+        <v>10160</v>
+      </c>
+      <c r="N16">
+        <v>80</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="Q16">
+        <f>N16*12</f>
+        <v>960</v>
+      </c>
+      <c r="R16">
+        <f>R15-Q16</f>
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+      <c r="F17">
         <v>150</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>370</v>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="I17">
+        <f>F17*12</f>
+        <v>1800</v>
+      </c>
+      <c r="J17">
+        <f>J16-I17</f>
+        <v>8360</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="Q17">
+        <f>N17*12</f>
+        <v>1200</v>
+      </c>
+      <c r="R17">
+        <f>R16-Q17</f>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-80</v>
+      </c>
+      <c r="F18">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="I18">
+        <f>F18*12</f>
+        <v>1440</v>
+      </c>
+      <c r="J18">
+        <f>J17-I18</f>
+        <v>6920</v>
+      </c>
+      <c r="N18">
+        <v>120</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>830</v>
+      </c>
+      <c r="Q18">
+        <f>N18*12</f>
+        <v>1440</v>
+      </c>
+      <c r="R18">
+        <f>R17-Q18</f>
+        <v>11960</v>
       </c>
     </row>
   </sheetData>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\Privat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658DB38-080B-4240-8295-29E96210B8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3442B08-2EE1-453A-8321-A5A34A33AEAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86889746-8514-4861-BDF6-A0C619C4B626}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,29 +494,29 @@
         <v>2000</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G3">
         <f>E3+F3</f>
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J3">
         <f>E3*12+F3*13</f>
-        <v>50000</v>
+        <v>43500</v>
       </c>
       <c r="M3">
         <v>2000</v>
       </c>
       <c r="N3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="O3">
         <f>M3+N3</f>
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="R3">
         <f>M3*12+N3*13</f>
-        <v>50000</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -535,30 +535,30 @@
       </c>
       <c r="G4">
         <f>G3-F4</f>
-        <v>3935</v>
+        <v>3435</v>
       </c>
       <c r="I4">
-        <f>F4*12</f>
+        <f t="shared" ref="I4:I18" si="0">F4*12</f>
         <v>780</v>
       </c>
       <c r="J4">
-        <f>J3-I4</f>
-        <v>49220</v>
+        <f t="shared" ref="J4:J18" si="1">J3-I4</f>
+        <v>42720</v>
       </c>
       <c r="N4">
         <v>65</v>
       </c>
       <c r="O4">
         <f>O3-N4</f>
-        <v>3935</v>
+        <v>3435</v>
       </c>
       <c r="Q4">
-        <f>N4*12</f>
+        <f t="shared" ref="Q4:Q18" si="2">N4*12</f>
         <v>780</v>
       </c>
       <c r="R4">
-        <f>R3-Q4</f>
-        <v>49220</v>
+        <f t="shared" ref="R4:R18" si="3">R3-Q4</f>
+        <v>42720</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -569,38 +569,38 @@
         <v>500</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C18" si="0">C4-B5</f>
+        <f t="shared" ref="C5:C18" si="4">C4-B5</f>
         <v>1475</v>
       </c>
       <c r="F5">
         <v>600</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G18" si="1">G4-F5</f>
-        <v>3335</v>
+        <f t="shared" ref="G5:G18" si="5">G4-F5</f>
+        <v>2835</v>
       </c>
       <c r="I5">
-        <f>F5*12</f>
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
       <c r="J5">
-        <f>J4-I5</f>
-        <v>42020</v>
+        <f t="shared" si="1"/>
+        <v>35520</v>
       </c>
       <c r="N5">
         <v>500</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O18" si="2">O4-N5</f>
-        <v>3435</v>
+        <f t="shared" ref="O5:O18" si="6">O4-N5</f>
+        <v>2935</v>
       </c>
       <c r="Q5">
-        <f>N5*12</f>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="R5">
-        <f>R4-Q5</f>
-        <v>43220</v>
+        <f t="shared" si="3"/>
+        <v>36720</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -611,38 +611,38 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1325</v>
       </c>
       <c r="F6">
         <v>150</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>3185</v>
+        <f t="shared" si="5"/>
+        <v>2685</v>
       </c>
       <c r="I6">
-        <f>F6*12</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="J6">
-        <f>J5-I6</f>
-        <v>40220</v>
+        <f t="shared" si="1"/>
+        <v>33720</v>
       </c>
       <c r="N6">
         <v>150</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
-        <v>3285</v>
+        <f t="shared" si="6"/>
+        <v>2785</v>
       </c>
       <c r="Q6">
-        <f>N6*12</f>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="R6">
-        <f>R5-Q6</f>
-        <v>41420</v>
+        <f t="shared" si="3"/>
+        <v>34920</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -653,38 +653,38 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1175</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>2985</v>
+        <f t="shared" si="5"/>
+        <v>2485</v>
       </c>
       <c r="I7">
-        <f>F7*12</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="J7">
-        <f>J6-I7</f>
-        <v>37820</v>
+        <f t="shared" si="1"/>
+        <v>31320</v>
       </c>
       <c r="N7">
         <v>150</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
-        <v>3135</v>
+        <f t="shared" si="6"/>
+        <v>2635</v>
       </c>
       <c r="Q7">
-        <f>N7*12</f>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="R7">
-        <f>R6-Q7</f>
-        <v>39620</v>
+        <f t="shared" si="3"/>
+        <v>33120</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -695,38 +695,38 @@
         <v>40</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1135</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>2935</v>
+        <f t="shared" si="5"/>
+        <v>2435</v>
       </c>
       <c r="I8">
-        <f>F8*12</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="J8">
-        <f>J7-I8</f>
-        <v>37220</v>
+        <f t="shared" si="1"/>
+        <v>30720</v>
       </c>
       <c r="N8">
         <v>40</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
-        <v>3095</v>
+        <f t="shared" si="6"/>
+        <v>2595</v>
       </c>
       <c r="Q8">
-        <f>N8*12</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="R8">
-        <f>R7-Q8</f>
-        <v>39140</v>
+        <f t="shared" si="3"/>
+        <v>32640</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -737,38 +737,38 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1055</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>2835</v>
+        <f t="shared" si="5"/>
+        <v>2335</v>
       </c>
       <c r="I9">
-        <f>F9*12</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="J9">
-        <f>J8-I9</f>
-        <v>36020</v>
+        <f t="shared" si="1"/>
+        <v>29520</v>
       </c>
       <c r="N9">
         <v>80</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
-        <v>3015</v>
+        <f t="shared" si="6"/>
+        <v>2515</v>
       </c>
       <c r="Q9">
-        <f>N9*12</f>
+        <f t="shared" si="2"/>
         <v>960</v>
       </c>
       <c r="R9">
-        <f>R8-Q9</f>
-        <v>38180</v>
+        <f t="shared" si="3"/>
+        <v>31680</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -779,38 +779,38 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1020</v>
       </c>
       <c r="F10">
         <v>35</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>2800</v>
+        <f t="shared" si="5"/>
+        <v>2300</v>
       </c>
       <c r="I10">
-        <f>F10*12</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="J10">
-        <f>J9-I10</f>
-        <v>35600</v>
+        <f t="shared" si="1"/>
+        <v>29100</v>
       </c>
       <c r="N10">
         <v>35</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
-        <v>2980</v>
+        <f t="shared" si="6"/>
+        <v>2480</v>
       </c>
       <c r="Q10">
-        <f>N10*12</f>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="R10">
-        <f>R9-Q10</f>
-        <v>37760</v>
+        <f t="shared" si="3"/>
+        <v>31260</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -821,38 +821,38 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F11">
         <v>20</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>2780</v>
+        <f t="shared" si="5"/>
+        <v>2280</v>
       </c>
       <c r="I11">
-        <f>F11*12</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="J11">
-        <f>J10-I11</f>
-        <v>35360</v>
+        <f t="shared" si="1"/>
+        <v>28860</v>
       </c>
       <c r="N11">
         <v>20</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>2960</v>
+        <f t="shared" si="6"/>
+        <v>2460</v>
       </c>
       <c r="Q11">
-        <f>N11*12</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="R11">
-        <f>R10-Q11</f>
-        <v>37520</v>
+        <f t="shared" si="3"/>
+        <v>31020</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -863,38 +863,38 @@
         <v>150</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>850</v>
       </c>
       <c r="F12">
         <v>150</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>2630</v>
+        <f t="shared" si="5"/>
+        <v>2130</v>
       </c>
       <c r="I12">
-        <f>F12*12</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="J12">
-        <f>J11-I12</f>
-        <v>33560</v>
+        <f t="shared" si="1"/>
+        <v>27060</v>
       </c>
       <c r="N12">
         <v>150</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
-        <v>2810</v>
+        <f t="shared" si="6"/>
+        <v>2310</v>
       </c>
       <c r="Q12">
-        <f>N12*12</f>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="R12">
-        <f>R11-Q12</f>
-        <v>35720</v>
+        <f t="shared" si="3"/>
+        <v>29220</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -905,38 +905,38 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>770</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>2530</v>
+        <f t="shared" si="5"/>
+        <v>1930</v>
       </c>
       <c r="I13">
-        <f>F13*12</f>
-        <v>1200</v>
+        <f t="shared" si="0"/>
+        <v>2400</v>
       </c>
       <c r="J13">
-        <f>J12-I13</f>
-        <v>32360</v>
+        <f t="shared" si="1"/>
+        <v>24660</v>
       </c>
       <c r="N13">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
-        <v>2730</v>
+        <f t="shared" si="6"/>
+        <v>2110</v>
       </c>
       <c r="Q13">
-        <f>N13*12</f>
-        <v>960</v>
+        <f t="shared" si="2"/>
+        <v>2400</v>
       </c>
       <c r="R13">
-        <f>R12-Q13</f>
-        <v>34760</v>
+        <f t="shared" si="3"/>
+        <v>26820</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -947,38 +947,38 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>670</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>2430</v>
+        <f t="shared" si="5"/>
+        <v>1830</v>
       </c>
       <c r="I14">
-        <f>F14*12</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="J14">
-        <f>J13-I14</f>
-        <v>31160</v>
+        <f t="shared" si="1"/>
+        <v>23460</v>
       </c>
       <c r="N14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
-        <v>2530</v>
+        <f t="shared" si="6"/>
+        <v>2010</v>
       </c>
       <c r="Q14">
-        <f>N14*12</f>
-        <v>2400</v>
+        <f t="shared" si="2"/>
+        <v>1200</v>
       </c>
       <c r="R14">
-        <f>R13-Q14</f>
-        <v>32360</v>
+        <f t="shared" si="3"/>
+        <v>25620</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -989,38 +989,38 @@
         <v>600</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F15">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>830</v>
       </c>
       <c r="I15">
-        <f>F15*12</f>
-        <v>19200</v>
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
       <c r="J15">
-        <f>J14-I15</f>
-        <v>11960</v>
+        <f t="shared" si="1"/>
+        <v>11460</v>
       </c>
       <c r="N15">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
-        <v>1130</v>
+        <f t="shared" si="6"/>
+        <v>1010</v>
       </c>
       <c r="Q15">
-        <f>N15*12</f>
-        <v>16800</v>
+        <f t="shared" si="2"/>
+        <v>12000</v>
       </c>
       <c r="R15">
-        <f>R14-Q15</f>
-        <v>15560</v>
+        <f t="shared" si="3"/>
+        <v>13620</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1031,38 +1031,38 @@
         <v>80</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="F16">
         <v>150</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>680</v>
       </c>
       <c r="I16">
-        <f>F16*12</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="J16">
-        <f>J15-I16</f>
-        <v>10160</v>
+        <f t="shared" si="1"/>
+        <v>9660</v>
       </c>
       <c r="N16">
         <v>80</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
-        <v>1050</v>
+        <f t="shared" si="6"/>
+        <v>930</v>
       </c>
       <c r="Q16">
-        <f>N16*12</f>
+        <f t="shared" si="2"/>
         <v>960</v>
       </c>
       <c r="R16">
-        <f>R15-Q16</f>
-        <v>14600</v>
+        <f t="shared" si="3"/>
+        <v>12660</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1073,38 +1073,38 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-60</v>
       </c>
       <c r="F17">
         <v>150</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>530</v>
       </c>
       <c r="I17">
-        <f>F17*12</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="J17">
-        <f>J16-I17</f>
-        <v>8360</v>
+        <f t="shared" si="1"/>
+        <v>7860</v>
       </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
-        <v>950</v>
+        <f t="shared" si="6"/>
+        <v>830</v>
       </c>
       <c r="Q17">
-        <f>N17*12</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="R17">
-        <f>R16-Q17</f>
-        <v>13400</v>
+        <f t="shared" si="3"/>
+        <v>11460</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1115,38 +1115,38 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-80</v>
       </c>
       <c r="F18">
         <v>120</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="I18">
-        <f>F18*12</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="J18">
-        <f>J17-I18</f>
-        <v>6920</v>
+        <f t="shared" si="1"/>
+        <v>6420</v>
       </c>
       <c r="N18">
         <v>120</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
-        <v>830</v>
+        <f t="shared" si="6"/>
+        <v>710</v>
       </c>
       <c r="Q18">
-        <f>N18*12</f>
+        <f t="shared" si="2"/>
         <v>1440</v>
       </c>
       <c r="R18">
-        <f>R17-Q18</f>
-        <v>11960</v>
+        <f t="shared" si="3"/>
+        <v>10020</v>
       </c>
     </row>
   </sheetData>
